--- a/RulesApp/src/main/resources/sample/NPV Model Inputs 1.28.2014.xlsx
+++ b/RulesApp/src/main/resources/sample/NPV Model Inputs 1.28.2014.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\e-nirvana\docs\proj-docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\e-nirvana\src-code\3pam\proj-docs\latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="391">
   <si>
     <t>Name</t>
   </si>
@@ -1476,6 +1476,27 @@
   </si>
   <si>
     <t>MonthEnd(CFKPaidDate)-1month+1day</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Motnhly Servicing Fee</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+  </si>
+  <si>
+    <t>AlwaysRequired</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1550,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1560,12 +1581,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1589,7 +1604,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1621,19 +1636,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1646,6 +1652,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -1957,10 +1974,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1968,12 +1985,18 @@
     <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="95.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="13" width="8.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="8" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>153</v>
       </c>
@@ -2019,8 +2042,20 @@
       <c r="O1" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>154</v>
       </c>
@@ -2066,8 +2101,20 @@
       <c r="O2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>387</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -2111,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>52</v>
       </c>
@@ -2155,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>140</v>
       </c>
@@ -2199,7 +2246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>165</v>
       </c>
@@ -2243,10 +2290,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -2288,7 +2335,7 @@
       </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2326,7 +2373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
@@ -2364,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
@@ -2405,7 +2452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
@@ -2446,7 +2493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -2490,7 +2537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
@@ -2534,7 +2581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -2575,7 +2622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -4710,13 +4757,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4747,16 +4794,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>341</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -4764,16 +4811,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>342</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -4781,100 +4828,100 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4888,7 +4935,7 @@
       <c r="C11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4902,7 +4949,7 @@
       <c r="C12" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="23" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4916,7 +4963,7 @@
       <c r="C13" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4930,7 +4977,7 @@
       <c r="C14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="23" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4944,7 +4991,7 @@
       <c r="C15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="24" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4958,7 +5005,7 @@
       <c r="C16" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="24" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4972,11 +5019,11 @@
       <c r="C17" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
@@ -4990,7 +5037,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>185</v>
       </c>
@@ -5004,7 +5051,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>187</v>
       </c>
@@ -5018,7 +5065,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>189</v>
       </c>
@@ -5032,7 +5079,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>198</v>
       </c>
@@ -5046,7 +5093,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>181</v>
       </c>
@@ -5060,7 +5107,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>182</v>
       </c>
@@ -5074,7 +5121,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>183</v>
       </c>
@@ -5088,7 +5135,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="345" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>191</v>
       </c>
@@ -5102,7 +5149,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>192</v>
       </c>
@@ -5116,7 +5163,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>194</v>
       </c>
@@ -5130,7 +5177,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -5144,7 +5191,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>201</v>
       </c>
@@ -5158,7 +5205,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>203</v>
       </c>
@@ -5172,7 +5219,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>205</v>
       </c>
@@ -5186,7 +5233,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>206</v>
       </c>
@@ -5200,7 +5247,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>208</v>
       </c>
@@ -5214,7 +5261,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>210</v>
       </c>
@@ -5228,7 +5275,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>212</v>
       </c>
@@ -5242,7 +5289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>214</v>
       </c>
@@ -5256,7 +5303,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>216</v>
       </c>
@@ -5270,7 +5317,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>218</v>
       </c>
@@ -5284,7 +5331,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>220</v>
       </c>
@@ -5298,7 +5345,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>221</v>
       </c>
@@ -5312,7 +5359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>223</v>
       </c>
@@ -5326,7 +5373,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>95</v>
       </c>
@@ -5340,7 +5387,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>225</v>
       </c>
@@ -5354,7 +5401,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>227</v>
       </c>
@@ -5368,7 +5415,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>229</v>
       </c>
@@ -5382,7 +5429,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>230</v>
       </c>
@@ -5396,7 +5443,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>232</v>
       </c>
@@ -5410,7 +5457,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>234</v>
       </c>
@@ -5424,7 +5471,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>236</v>
       </c>
@@ -5438,7 +5485,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>237</v>
       </c>
@@ -5452,7 +5499,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>239</v>
       </c>
@@ -5466,7 +5513,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>241</v>
       </c>
@@ -5480,7 +5527,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>242</v>
       </c>
@@ -5494,7 +5541,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>243</v>
       </c>
@@ -5508,7 +5555,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>245</v>
       </c>
@@ -5522,7 +5569,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
@@ -5536,7 +5583,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>249</v>
       </c>
@@ -5550,7 +5597,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>251</v>
       </c>
@@ -5564,7 +5611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>253</v>
       </c>
@@ -5578,7 +5625,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>254</v>
       </c>
@@ -5592,7 +5639,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>256</v>
       </c>
@@ -5606,7 +5653,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>258</v>
       </c>
@@ -5620,7 +5667,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>260</v>
       </c>
@@ -5634,7 +5681,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>262</v>
       </c>
@@ -5648,7 +5695,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>264</v>
       </c>
@@ -5662,7 +5709,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>266</v>
       </c>
@@ -5676,7 +5723,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>267</v>
       </c>
@@ -5690,7 +5737,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>268</v>
       </c>
@@ -5704,7 +5751,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>270</v>
       </c>
@@ -5718,7 +5765,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>97</v>
       </c>
@@ -5732,7 +5779,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>277</v>
       </c>
@@ -5746,7 +5793,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>279</v>
       </c>
@@ -5760,7 +5807,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>281</v>
       </c>
@@ -5774,7 +5821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>282</v>
       </c>
@@ -5788,7 +5835,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>284</v>
       </c>
@@ -5802,7 +5849,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>286</v>
       </c>
@@ -5816,7 +5863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>288</v>
       </c>
@@ -5830,7 +5877,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>289</v>
       </c>
@@ -5844,7 +5891,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>291</v>
       </c>
@@ -5858,7 +5905,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>293</v>
       </c>
@@ -5872,7 +5919,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>295</v>
       </c>
@@ -5886,7 +5933,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>296</v>
       </c>
@@ -5900,7 +5947,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>298</v>
       </c>
@@ -5914,7 +5961,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>302</v>
       </c>
@@ -5928,7 +5975,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>313</v>
       </c>
@@ -5942,7 +5989,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>304</v>
       </c>
@@ -5956,7 +6003,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>305</v>
       </c>
@@ -5970,7 +6017,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>306</v>
       </c>
@@ -5984,7 +6031,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>309</v>
       </c>
@@ -5998,7 +6045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>311</v>
       </c>
@@ -6012,7 +6059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>315</v>
       </c>
@@ -6026,7 +6073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>312</v>
       </c>
@@ -6040,7 +6087,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>296</v>
       </c>
@@ -6054,7 +6101,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>298</v>
       </c>
@@ -6068,7 +6115,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>317</v>
       </c>
@@ -6082,7 +6129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>318</v>
       </c>
@@ -6096,7 +6143,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>319</v>
       </c>
@@ -6110,7 +6157,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>321</v>
       </c>
@@ -6124,7 +6171,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>296</v>
       </c>
@@ -6138,7 +6185,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>298</v>
       </c>
@@ -6153,28 +6200,24 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="23" t="s">
         <v>345</v>
       </c>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="23"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E102">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All"/>
-        <filter val="Short Sale"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E102"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="landscape" horizontalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/RulesApp/src/main/resources/sample/NPV Model Inputs 1.28.2014.xlsx
+++ b/RulesApp/src/main/resources/sample/NPV Model Inputs 1.28.2014.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\e-nirvana\src-code\3pam\proj-docs\latest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,16 +13,16 @@
     <sheet name="Timeline" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$1:$N$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$1:$N$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Scenario Steps'!$A$1:$E$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$B$1:$N$81</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="405">
   <si>
     <t>Name</t>
   </si>
@@ -50,27 +45,18 @@
     <t>REO Repaired</t>
   </si>
   <si>
-    <t>REO DIL</t>
-  </si>
-  <si>
     <t>REO DIL Repaired</t>
   </si>
   <si>
     <t>MOD</t>
   </si>
   <si>
-    <t>FC Bid</t>
-  </si>
-  <si>
     <t>Note Sale</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>MotnhlyServicingFee</t>
-  </si>
-  <si>
     <t>DW</t>
   </si>
   <si>
@@ -159,9 +145,6 @@
   </si>
   <si>
     <t>tld.EstFCSaleDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupancy </t>
   </si>
   <si>
     <t>lbk.CurrentOccupancy</t>
@@ -1498,15 +1481,69 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>ArrayDate</t>
+  </si>
+  <si>
+    <t>ArrayIncentivesAmount:CFK:Incentives</t>
+  </si>
+  <si>
+    <t>ArrayIncentivesDate:CFK:Incentives</t>
+  </si>
+  <si>
+    <t>ArrayDate:LiquidationDate</t>
+  </si>
+  <si>
+    <t>ArrayHPI</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>ShortSale</t>
+  </si>
+  <si>
+    <t>ShortRefi</t>
+  </si>
+  <si>
+    <t>REOAsIs</t>
+  </si>
+  <si>
+    <t>REORepaired</t>
+  </si>
+  <si>
+    <t>REODIL</t>
+  </si>
+  <si>
+    <t>REODILRepaired</t>
+  </si>
+  <si>
+    <t>Should be an array as in sample json request</t>
+  </si>
+  <si>
+    <t>MonthlyServicingFee</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1549,8 +1586,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1581,6 +1625,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1591,9 +1641,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1603,8 +1653,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1663,8 +1714,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
     <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Hyperlink 3" xfId="3"/>
@@ -1727,7 +1783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1759,10 +1815,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1794,7 +1849,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1970,35 +2024,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:S146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="13" width="8.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="8" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.5546875" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="51.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2009,665 +2070,705 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" s="26" t="s">
+        <v>396</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>398</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>399</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>16</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="Q8" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2678,671 +2779,724 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N20"/>
       <c r="O20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22"/>
+        <v>11</v>
+      </c>
+      <c r="E22" s="27"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23"/>
+        <v>11</v>
+      </c>
+      <c r="E23" s="27"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24"/>
+        <v>11</v>
+      </c>
+      <c r="E24" s="27"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25"/>
-      <c r="E25"/>
+      <c r="E25" s="27"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27"/>
+        <v>29</v>
+      </c>
+      <c r="E27" s="27"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
       <c r="O27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28"/>
+        <v>29</v>
+      </c>
+      <c r="E28" s="27"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
       <c r="O28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29"/>
+        <v>29</v>
+      </c>
+      <c r="E29" s="27"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
       <c r="O29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30"/>
+        <v>29</v>
+      </c>
+      <c r="E30" s="27"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
       <c r="O30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31"/>
+        <v>29</v>
+      </c>
+      <c r="E31" s="27"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
       <c r="O31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32"/>
+        <v>29</v>
+      </c>
+      <c r="E32" s="27"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
       <c r="O32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33"/>
+        <v>29</v>
+      </c>
+      <c r="E33" s="27"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
       <c r="O33" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34"/>
+        <v>29</v>
+      </c>
+      <c r="E34" s="27"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
       <c r="O34" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35"/>
+        <v>29</v>
+      </c>
+      <c r="E35" s="27"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
       <c r="O35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36"/>
+        <v>29</v>
+      </c>
+      <c r="E36" s="27"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
       <c r="O36" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B39" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E39" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B40" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" t="s">
-        <v>15</v>
-      </c>
-      <c r="N38" t="s">
-        <v>88</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" t="s">
-        <v>15</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41"/>
+      <c r="E41" s="27"/>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -3352,199 +3506,217 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B42" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="E44" s="27"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45"/>
+      <c r="E45" s="27"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46"/>
+      <c r="E46" s="27"/>
       <c r="F46"/>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
       <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47"/>
+      <c r="E47" s="27"/>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -3554,101 +3726,110 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
+      <c r="E48" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>15</v>
+      <c r="E49" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50"/>
+        <v>14</v>
+      </c>
+      <c r="E50" s="27"/>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -3657,260 +3838,283 @@
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E51" s="27"/>
       <c r="G51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B52" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B53" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="O52" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="C53" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="E53" s="27"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N55"/>
       <c r="O55" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B56" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N56" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K57"/>
       <c r="L57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58"/>
+        <v>29</v>
+      </c>
+      <c r="E58" s="27"/>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -3920,26 +4124,29 @@
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59"/>
+        <v>29</v>
+      </c>
+      <c r="E59" s="27"/>
       <c r="F59"/>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
@@ -3948,120 +4155,139 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15" customHeight="1">
       <c r="B60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" t="s">
+        <v>83</v>
+      </c>
+      <c r="O60" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1">
+      <c r="B61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
+        <v>83</v>
+      </c>
+      <c r="O61" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15" customHeight="1">
+      <c r="B62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" t="s">
+        <v>83</v>
+      </c>
+      <c r="O62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B63" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="K63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15" customHeight="1">
+      <c r="B64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="N60" t="s">
-        <v>87</v>
-      </c>
-      <c r="O60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" t="s">
-        <v>15</v>
-      </c>
-      <c r="N61" t="s">
-        <v>87</v>
-      </c>
-      <c r="O61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" t="s">
-        <v>15</v>
-      </c>
-      <c r="N62" t="s">
-        <v>87</v>
-      </c>
-      <c r="O62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C64" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65"/>
+        <v>29</v>
+      </c>
+      <c r="E65" s="27"/>
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
@@ -4070,34 +4296,46 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N65"/>
       <c r="O65" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67"/>
+      <c r="E67" s="27"/>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -4107,21 +4345,24 @@
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B68" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" t="s">
-        <v>15</v>
+      <c r="E68" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
@@ -4132,26 +4373,29 @@
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69"/>
+        <v>14</v>
+      </c>
+      <c r="E69" s="27"/>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -4159,24 +4403,27 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
-    </row>
-    <row r="70" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q69" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70"/>
+        <v>14</v>
+      </c>
+      <c r="E70" s="27"/>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
@@ -4184,140 +4431,155 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
-    </row>
-    <row r="71" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q70" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71"/>
+      <c r="E71" s="27"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73"/>
+        <v>11</v>
+      </c>
+      <c r="E73" s="27"/>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B74" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74"/>
+        <v>11</v>
+      </c>
+      <c r="E74" s="27"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
+      <c r="E75" s="27"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -4327,18 +4589,21 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -4348,277 +4613,328 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="27"/>
+    </row>
+    <row r="78" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="2:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="27"/>
+    </row>
+    <row r="80" spans="2:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="27"/>
+    </row>
+    <row r="81" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K81"/>
       <c r="L81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N81" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O81"/>
       <c r="P81"/>
-    </row>
-    <row r="82" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q81" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82"/>
-      <c r="L82" t="s">
-        <v>15</v>
-      </c>
-      <c r="M82" t="s">
-        <v>15</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-    </row>
-    <row r="83" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" t="s">
-        <v>15</v>
-      </c>
-      <c r="K83"/>
-      <c r="L83" t="s">
-        <v>15</v>
-      </c>
-      <c r="M83" t="s">
-        <v>15</v>
-      </c>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-    </row>
-    <row r="84" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="8"/>
+      <c r="Q83" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" t="s">
-        <v>15</v>
-      </c>
-      <c r="K84"/>
-      <c r="L84" t="s">
-        <v>15</v>
-      </c>
-      <c r="M84" t="s">
-        <v>15</v>
-      </c>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-    </row>
-    <row r="85" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="5"/>
-    </row>
-    <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="15" customHeight="1">
+      <c r="B85" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B86" s="5"/>
+      <c r="E86" s="27"/>
+    </row>
+    <row r="87" spans="1:17" ht="15" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="15" customHeight="1"/>
+    <row r="89" spans="1:17" ht="15" customHeight="1"/>
+    <row r="90" spans="1:17" ht="15" customHeight="1"/>
+    <row r="91" spans="1:17" ht="15" customHeight="1"/>
+    <row r="92" spans="1:17" ht="15" customHeight="1"/>
+    <row r="93" spans="1:17" ht="15" customHeight="1"/>
+    <row r="94" spans="1:17" ht="15" customHeight="1"/>
+    <row r="95" spans="1:17" ht="15" customHeight="1"/>
+    <row r="96" spans="1:17" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="115" ht="15" customHeight="1"/>
+    <row r="116" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="119" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="146" spans="2:2">
+      <c r="B146" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4633,121 +4949,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4756,1464 +5072,1464 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="125.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="125.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="81.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B4" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="C4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1">
+      <c r="A5" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>139</v>
-      </c>
       <c r="C5" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1">
       <c r="A10" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="402" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1">
+      <c r="A19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1">
+      <c r="A20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1">
+      <c r="A21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:4" s="4" customFormat="1">
+      <c r="A22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="331.2">
+      <c r="A26" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="12" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="345" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="409.6">
       <c r="A40" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.8">
       <c r="A53" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="409.6">
       <c r="A54" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="B58" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="28.8">
+      <c r="A67" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="3" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="409.6">
+      <c r="A68" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="B73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="12" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="28.8">
+      <c r="A81" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="409.6">
+      <c r="A82" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="4" customFormat="1">
+      <c r="A86" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="144">
+      <c r="A87" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="4" customFormat="1">
+      <c r="A92" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="316.8">
+      <c r="A93" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="316.8">
+      <c r="A99" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D80" s="3" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="B100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D81" s="3" t="s">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="B101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="330" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="D103" s="23"/>
     </row>
   </sheetData>
@@ -6224,78 +6540,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="27" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -6306,18 +6622,18 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -6328,164 +6644,164 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" t="s">
         <v>349</v>
       </c>
-      <c r="C4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B10" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" t="s">
         <v>369</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
